--- a/Test_data/计算资源/资源池.xlsx
+++ b/Test_data/计算资源/资源池.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="添加资源池" sheetId="1" r:id="rId1"/>
+    <sheet name="添加数据中心" sheetId="1" r:id="rId1"/>
+    <sheet name="添加资源池" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -22,7 +23,7 @@
     <t>测试要点</t>
   </si>
   <si>
-    <t xml:space="preserve">name </t>
+    <t>name</t>
   </si>
   <si>
     <t>description</t>
@@ -50,6 +51,60 @@
   </si>
   <si>
     <t>数据中心名称必填校验</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>proxyIp</t>
+  </si>
+  <si>
+    <t>proxyPort</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>datacenter</t>
+  </si>
+  <si>
+    <t>正常添加vmware资源池</t>
+  </si>
+  <si>
+    <t>vmware资源池16</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>vmware资源池16测试</t>
+  </si>
+  <si>
+    <t>172.21.1.16</t>
+  </si>
+  <si>
+    <t>administrator@vsphere.local</t>
+  </si>
+  <si>
+    <t>Root@1234</t>
+  </si>
+  <si>
+    <t>DC1</t>
   </si>
 </sst>
 </file>
@@ -58,11 +113,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +126,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -78,6 +164,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -87,47 +257,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,79 +271,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,79 +287,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,115 +471,117 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,21 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -467,54 +619,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -535,141 +639,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -989,13 +1109,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
@@ -1009,73 +1129,467 @@
     <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3">
+        <v>443</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" display="administrator@vsphere.local"/>
+    <hyperlink ref="L3" r:id="rId2" display="Root@1234"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
